--- a/projekti-6/Testauslomake 6.xlsx
+++ b/projekti-6/Testauslomake 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oma\Documents\Git\HTML-harjoituksia\projekti\projekti-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mika\Desktop\Projekti-Junnonen-Alander-Bjorn\projekti-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D81D0B2-C299-4165-881C-4382886E56BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20060C8E-0C7A-439D-AADD-00B05E3AF536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="2250" windowWidth="9600" windowHeight="10095" xr2:uid="{27D90A5A-39D8-4CE4-8476-98E62B407D7C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27D90A5A-39D8-4CE4-8476-98E62B407D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Testauslomake</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>Ohjelma hakee avaimen tiedot ja lähettää ne käyttäjän nähtäville</t>
+  </si>
+  <si>
+    <t>Testaaja: Mika Björn</t>
+  </si>
+  <si>
+    <t>Hylätty</t>
+  </si>
+  <si>
+    <t>Ohjelma ei pyydä mitään vaan tallentaa tyhjän lomakkeen.</t>
+  </si>
+  <si>
+    <t>Ohjelma ei pyydä mitään vaan tallentaa avaimen.</t>
+  </si>
+  <si>
+    <t>Ohjelma ei pyydä mitään vaan tallentaa syötetyt tiedot</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -271,9 +289,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,9 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,13 +315,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +646,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,235 +659,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="14" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
         <v>44586</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="18">
-        <v>44586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/projekti-6/Testauslomake 6.xlsx
+++ b/projekti-6/Testauslomake 6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mika\Desktop\Projekti-Junnonen-Alander-Bjorn\projekti-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20060C8E-0C7A-439D-AADD-00B05E3AF536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D164EA2A-2DCE-4A64-93A2-947C5AE940ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27D90A5A-39D8-4CE4-8476-98E62B407D7C}"/>
+    <workbookView xWindow="3780" yWindow="2145" windowWidth="13350" windowHeight="8595" xr2:uid="{27D90A5A-39D8-4CE4-8476-98E62B407D7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Testauslomake</t>
-  </si>
-  <si>
-    <t>Testaaja:</t>
   </si>
   <si>
     <t>Pvm:</t>
@@ -198,6 +195,18 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Testaaja: Jasmin Junnonen</t>
+  </si>
+  <si>
+    <t>Ohjelma näyttää käyttäjälle sanan 'null' jos avainta ei löydy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>Ohjelma ilmoittaa että avaimen tiedot on poistettu.</t>
   </si>
 </sst>
 </file>
@@ -645,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B411EEBF-E389-4792-96EE-02040536DB84}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,17 +678,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="13">
         <v>44586</v>
@@ -687,19 +696,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -724,16 +733,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -741,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -758,16 +767,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -775,14 +784,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,7 +803,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -803,12 +812,12 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="5"/>
       <c r="D12" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15">
         <v>44586</v>
@@ -816,19 +825,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -836,52 +845,64 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
